--- a/ONCHO/Impact Assessments/Nigeria/ng_oncho_prestop_3_rdtov16_202208.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/ng_oncho_prestop_3_rdtov16_202208.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="151">
   <si>
     <t>type</t>
   </si>
@@ -354,9 +354,15 @@
     <t>Karasuwa</t>
   </si>
   <si>
+    <t>Nangere</t>
+  </si>
+  <si>
     <t>Nguru</t>
   </si>
   <si>
+    <t>Potiskum</t>
+  </si>
+  <si>
     <t>Tarmuwa</t>
   </si>
   <si>
@@ -420,12 +426,24 @@
     <t>Garunguna</t>
   </si>
   <si>
+    <t>Garin Gada</t>
+  </si>
+  <si>
+    <t>Tarajim</t>
+  </si>
+  <si>
     <t>Dabule</t>
   </si>
   <si>
     <t>Yamdugu</t>
   </si>
   <si>
+    <t>Danchiwa</t>
+  </si>
+  <si>
+    <t>Garin Zaniwa</t>
+  </si>
+  <si>
     <t>Muli</t>
   </si>
   <si>
@@ -444,10 +462,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Aug 2022) ONCHO PreStop - 3. RDT OV16 Form</t>
-  </si>
-  <si>
-    <t>ng_oncho_prestop_3_rdtov16_202208</t>
+    <t>(Aug 2022) ONCHO PreStop - 3. RDT OV16 Form V2</t>
+  </si>
+  <si>
+    <t>ng_oncho_prestop_3_rdtov16_202208_v2</t>
   </si>
   <si>
     <t>English</t>
@@ -458,10 +476,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -473,13 +491,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -502,8 +513,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,29 +554,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,7 +578,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,6 +608,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,7 +636,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,13 +649,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -612,30 +656,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -652,13 +672,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,169 +846,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,6 +881,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -880,7 +909,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,11 +929,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,160 +978,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,8 +1135,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1129,16 +1154,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1150,10 +1179,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1163,7 +1189,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
@@ -1206,11 +1232,13 @@
     <cellStyle name="Title" xfId="39" builtinId="15"/>
     <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Heading 2" xfId="42" builtinId="17"/>
-    <cellStyle name="Comma" xfId="43" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="44" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="45" builtinId="40"/>
-    <cellStyle name="Percent" xfId="46" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -1488,7 +1516,7 @@
   <sheetPr/>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1498,7 +1526,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.6222222222222" style="18" customWidth="1"/>
+    <col min="1" max="1" width="19.6222222222222" style="19" customWidth="1"/>
     <col min="2" max="2" width="19.5037037037037" customWidth="1"/>
     <col min="3" max="3" width="47.5037037037037" customWidth="1"/>
     <col min="4" max="4" width="47.3777777777778" customWidth="1"/>
@@ -1513,409 +1541,409 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="18" spans="1:12">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" ht="28.5" spans="1:12">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:12">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="10" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:12">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="10" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="21" t="s">
+      <c r="K4" s="6"/>
+      <c r="L4" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:12">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="24"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="10" t="s">
+      <c r="G5" s="23"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="21" t="s">
+      <c r="K5" s="6"/>
+      <c r="L5" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:12">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="10" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="21" t="s">
+      <c r="K6" s="6"/>
+      <c r="L6" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:12">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="23"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:12">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:12">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="42.75" spans="1:12">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" s="3" customFormat="1" ht="42.75" spans="1:12">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:12">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="21"/>
-      <c r="J12" s="7" t="s">
+      <c r="H12" s="22"/>
+      <c r="J12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:12">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" s="3" customFormat="1" ht="28.5" spans="1:12">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:12">
       <c r="A15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" s="3" customFormat="1" spans="1:12">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:12">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1927,12 +1955,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8:C10"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1943,1138 +1971,1270 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="13"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:5">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="17"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:5">
-      <c r="A22" s="14"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="17"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:5">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" s="4" customFormat="1" spans="1:5">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="17"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:5">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" s="4" customFormat="1" spans="1:5">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" s="4" customFormat="1" spans="1:5">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" s="4" customFormat="1" spans="1:5">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="17"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" s="4" customFormat="1" spans="1:5">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="17"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" s="4" customFormat="1" spans="1:5">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="17"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" s="4" customFormat="1" spans="1:5">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="17"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" s="4" customFormat="1" spans="1:5">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="17"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" s="4" customFormat="1" spans="1:5">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="17"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" s="4" customFormat="1" spans="1:5">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" s="5" customFormat="1"/>
-    <row r="36" s="5" customFormat="1" spans="1:5">
-      <c r="A36" s="5" t="s">
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" s="4" customFormat="1" spans="1:4">
+      <c r="A35" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" s="4" customFormat="1" spans="1:4">
+      <c r="A36" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1"/>
+    <row r="38" customFormat="1" spans="1:5">
+      <c r="A38" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:5">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:5">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:5">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:5">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:5">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:5">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:5">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:5">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:5">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:5">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:5">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:5">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:5">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:5">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:5">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:5">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:5">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:5">
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:5">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:5">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:5">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:5">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:5">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:5">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:5">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="5" t="s">
+    </row>
+    <row r="64" customFormat="1" spans="1:5">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1"/>
+    <row r="66" customFormat="1" spans="1:6">
+      <c r="A66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66">
+        <v>101</v>
+      </c>
+      <c r="C66">
+        <v>101</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:6">
+      <c r="A67" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67">
+        <v>102</v>
+      </c>
+      <c r="C67">
+        <v>102</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:6">
+      <c r="A68" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68">
+        <v>103</v>
+      </c>
+      <c r="C68">
+        <v>103</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:6">
+      <c r="A69" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69">
+        <v>104</v>
+      </c>
+      <c r="C69">
+        <v>104</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:6">
+      <c r="A70" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70">
+        <v>105</v>
+      </c>
+      <c r="C70">
+        <v>105</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:6">
+      <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71">
+        <v>106</v>
+      </c>
+      <c r="C71">
+        <v>106</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:6">
+      <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72">
+        <v>107</v>
+      </c>
+      <c r="C72">
+        <v>107</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:6">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73">
+        <v>108</v>
+      </c>
+      <c r="C73">
+        <v>108</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:6">
+      <c r="A74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74">
+        <v>109</v>
+      </c>
+      <c r="C74">
+        <v>109</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:6">
+      <c r="A75" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75">
+        <v>110</v>
+      </c>
+      <c r="C75">
+        <v>110</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:6">
+      <c r="A76" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76">
+        <v>111</v>
+      </c>
+      <c r="C76">
+        <v>111</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:6">
+      <c r="A77" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77">
+        <v>112</v>
+      </c>
+      <c r="C77">
+        <v>112</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:6">
+      <c r="A78" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78">
+        <v>113</v>
+      </c>
+      <c r="C78">
+        <v>113</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:6">
+      <c r="A79" t="s">
+        <v>144</v>
+      </c>
+      <c r="B79">
+        <v>114</v>
+      </c>
+      <c r="C79">
+        <v>114</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:6">
+      <c r="A80" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80">
         <v>115</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" s="5" customFormat="1" spans="1:5">
-      <c r="A37" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="5" t="s">
+      <c r="C80">
+        <v>115</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:6">
+      <c r="A81" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81">
         <v>116</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C81">
         <v>116</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" s="5" customFormat="1" spans="1:5">
-      <c r="A38" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="5" t="s">
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:6">
+      <c r="A82" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82">
         <v>117</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C82">
         <v>117</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" s="5" customFormat="1" spans="1:5">
-      <c r="A39" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="5" t="s">
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>144</v>
+      </c>
+      <c r="B83">
         <v>118</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C83">
         <v>118</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" s="5" customFormat="1" spans="1:5">
-      <c r="A40" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="5" t="s">
+      <c r="F83" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84">
         <v>119</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C84">
         <v>119</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" s="5" customFormat="1" spans="1:5">
-      <c r="A41" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="5" t="s">
+      <c r="F84" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>144</v>
+      </c>
+      <c r="B85">
         <v>120</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C85">
         <v>120</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" s="5" customFormat="1" spans="1:5">
-      <c r="A42" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="5" t="s">
+      <c r="F85" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86">
         <v>121</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C86">
         <v>121</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" s="5" customFormat="1" spans="1:5">
-      <c r="A43" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="5" t="s">
+      <c r="F86" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87">
         <v>122</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C87">
         <v>122</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" s="5" customFormat="1" spans="1:5">
-      <c r="A44" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="F87" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88">
         <v>123</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C88">
         <v>123</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" s="5" customFormat="1" spans="1:5">
-      <c r="A45" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="5" t="s">
+      <c r="F88" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>144</v>
+      </c>
+      <c r="B89">
         <v>124</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C89">
         <v>124</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" s="5" customFormat="1" spans="1:5">
-      <c r="A46" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="5" t="s">
+      <c r="F89" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90">
         <v>125</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C90">
         <v>125</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" s="5" customFormat="1" spans="1:5">
-      <c r="A47" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" s="5" t="s">
+      <c r="F90" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>144</v>
+      </c>
+      <c r="B91">
         <v>126</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C91">
         <v>126</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" s="5" customFormat="1" spans="1:5">
-      <c r="A48" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="5" t="s">
+      <c r="F91" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92">
         <v>127</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C92">
         <v>127</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" s="5" customFormat="1" spans="1:5">
-      <c r="A49" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" s="5" customFormat="1" spans="1:5">
-      <c r="A50" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" s="5" customFormat="1" spans="1:5">
-      <c r="A51" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" s="5" customFormat="1" spans="1:5">
-      <c r="A52" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" s="5" customFormat="1" spans="1:5">
-      <c r="A53" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" s="5" customFormat="1" spans="1:5">
-      <c r="A54" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" s="5" customFormat="1" spans="1:5">
-      <c r="A55" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="56" s="5" customFormat="1" spans="1:5">
-      <c r="A56" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" s="5" customFormat="1" spans="1:5">
-      <c r="A57" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" s="5" customFormat="1" spans="1:5">
-      <c r="A58" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" s="5" customFormat="1"/>
-    <row r="60" s="5" customFormat="1" spans="1:6">
-      <c r="A60" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B60" s="5">
-        <v>101</v>
-      </c>
-      <c r="C60" s="5">
-        <v>101</v>
-      </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" s="5" customFormat="1" spans="1:6">
-      <c r="A61" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B61" s="5">
-        <v>102</v>
-      </c>
-      <c r="C61" s="5">
-        <v>102</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="62" s="5" customFormat="1" spans="1:6">
-      <c r="A62" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B62" s="5">
-        <v>103</v>
-      </c>
-      <c r="C62" s="5">
-        <v>103</v>
-      </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" s="5" customFormat="1" spans="1:6">
-      <c r="A63" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B63" s="5">
-        <v>104</v>
-      </c>
-      <c r="C63" s="5">
-        <v>104</v>
-      </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" s="5" customFormat="1" spans="1:6">
-      <c r="A64" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B64" s="5">
-        <v>105</v>
-      </c>
-      <c r="C64" s="5">
-        <v>105</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" s="5" customFormat="1" spans="1:6">
-      <c r="A65" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B65" s="5">
-        <v>106</v>
-      </c>
-      <c r="C65" s="5">
-        <v>106</v>
-      </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66" s="5" customFormat="1" spans="1:6">
-      <c r="A66" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B66" s="5">
-        <v>107</v>
-      </c>
-      <c r="C66" s="5">
-        <v>107</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" s="5" customFormat="1" spans="1:6">
-      <c r="A67" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B67" s="5">
-        <v>108</v>
-      </c>
-      <c r="C67" s="5">
-        <v>108</v>
-      </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" s="5" customFormat="1" spans="1:6">
-      <c r="A68" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B68" s="5">
-        <v>109</v>
-      </c>
-      <c r="C68" s="5">
-        <v>109</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="69" s="5" customFormat="1" spans="1:6">
-      <c r="A69" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B69" s="5">
-        <v>110</v>
-      </c>
-      <c r="C69" s="5">
-        <v>110</v>
-      </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70" s="5" customFormat="1" spans="1:6">
-      <c r="A70" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" s="5">
-        <v>111</v>
-      </c>
-      <c r="C70" s="5">
-        <v>111</v>
-      </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" s="5" customFormat="1" spans="1:6">
-      <c r="A71" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B71" s="5">
-        <v>112</v>
-      </c>
-      <c r="C71" s="5">
-        <v>112</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72" s="5" customFormat="1" spans="1:6">
-      <c r="A72" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B72" s="5">
-        <v>113</v>
-      </c>
-      <c r="C72" s="5">
-        <v>113</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" s="5" customFormat="1" spans="1:6">
-      <c r="A73" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B73" s="5">
-        <v>114</v>
-      </c>
-      <c r="C73" s="5">
-        <v>114</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" s="5" customFormat="1" spans="1:6">
-      <c r="A74" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B74" s="5">
-        <v>115</v>
-      </c>
-      <c r="C74" s="5">
-        <v>115</v>
-      </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="75" s="5" customFormat="1" spans="1:6">
-      <c r="A75" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B75" s="5">
-        <v>116</v>
-      </c>
-      <c r="C75" s="5">
-        <v>116</v>
-      </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="76" s="5" customFormat="1" spans="1:6">
-      <c r="A76" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B76" s="5">
-        <v>117</v>
-      </c>
-      <c r="C76" s="5">
-        <v>117</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="77" s="5" customFormat="1" spans="1:6">
-      <c r="A77" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B77" s="5">
-        <v>118</v>
-      </c>
-      <c r="C77" s="5">
-        <v>118</v>
-      </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="78" s="5" customFormat="1" spans="1:6">
-      <c r="A78" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B78" s="5">
-        <v>119</v>
-      </c>
-      <c r="C78" s="5">
-        <v>119</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="79" s="5" customFormat="1" spans="1:6">
-      <c r="A79" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B79" s="5">
-        <v>120</v>
-      </c>
-      <c r="C79" s="5">
-        <v>120</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="80" s="5" customFormat="1" spans="1:6">
-      <c r="A80" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B80" s="5">
-        <v>121</v>
-      </c>
-      <c r="C80" s="5">
-        <v>121</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="81" s="5" customFormat="1" spans="1:6">
-      <c r="A81" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B81" s="5">
-        <v>122</v>
-      </c>
-      <c r="C81" s="5">
-        <v>122</v>
-      </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="82" s="5" customFormat="1" spans="1:6">
-      <c r="A82" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B82" s="5">
-        <v>123</v>
-      </c>
-      <c r="C82" s="5">
-        <v>123</v>
-      </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5" t="s">
+      <c r="F92" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3092,8 +3252,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -3104,24 +3264,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
